--- a/06_inputs/i01_mappings.xlsx
+++ b/06_inputs/i01_mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projects\apartment_shopping\06_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A348FBAD-C233-47E5-8CC3-216A6CE2DB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD3770-24EE-42C6-AC1F-509347C953D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{9A8069C6-F8B2-476C-84DD-BB1A0B4AE697}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{9A8069C6-F8B2-476C-84DD-BB1A0B4AE697}"/>
   </bookViews>
   <sheets>
     <sheet name="used_mappings" sheetId="1" r:id="rId1"/>
@@ -1984,10 +1984,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AE61A00-CA00-4DE7-A6D0-2016F1E0A263}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{4A9543A1-C6ED-40CC-A971-1204199618FF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
-    <sortCondition ref="A1:A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AE61A00-CA00-4DE7-A6D0-2016F1E0A263}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{4A9543A1-C6ED-40CC-A971-1204199618FF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
+    <sortCondition ref="A1:A3"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="4" xr3:uid="{BA6E9F97-2E8A-4D9D-81F3-089A7127BF02}" name="Hemnet_name"/>
@@ -1998,8 +1998,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1800A77-6274-4EBD-A91A-8D8CA5AD2BBD}" name="Table13" displayName="Table13" ref="A1:F40" totalsRowShown="0">
-  <autoFilter ref="A1:F40" xr:uid="{49FF0015-CF5A-4409-BACE-DDB4A572741A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1800A77-6274-4EBD-A91A-8D8CA5AD2BBD}" name="Table13" displayName="Table13" ref="A1:F41" totalsRowShown="0">
+  <autoFilter ref="A1:F41" xr:uid="{49FF0015-CF5A-4409-BACE-DDB4A572741A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
     <sortCondition ref="C1:C40"/>
   </sortState>
@@ -2326,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867C9CE1-D522-4726-9B57-3B7551A7F9DC}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,33 +2367,25 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>473575</v>
+        <v>473362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>473362</v>
+        <v>473498</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>473498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7">
         <v>473501</v>
       </c>
     </row>
@@ -2403,9 +2395,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2416,9 +2405,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D37F582-6F4E-4CA8-BCEC-157E963C8490}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2992,24 +2983,35 @@
         <v>22</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>588</v>
+      </c>
+      <c r="D41">
+        <v>473575</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:A31 A2:A5">
-    <cfRule type="duplicateValues" dxfId="4" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E31 E2:E5">
-    <cfRule type="duplicateValues" dxfId="3" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C40">
-    <cfRule type="duplicateValues" dxfId="2" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40">
-    <cfRule type="duplicateValues" dxfId="1" priority="243"/>
+  <conditionalFormatting sqref="C2:C41">
+    <cfRule type="duplicateValues" dxfId="2" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/06_inputs/i01_mappings.xlsx
+++ b/06_inputs/i01_mappings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projects\apartment_shopping\06_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD3770-24EE-42C6-AC1F-509347C953D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC29A65-F476-49D9-B797-80E20DBBEF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{9A8069C6-F8B2-476C-84DD-BB1A0B4AE697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A8069C6-F8B2-476C-84DD-BB1A0B4AE697}"/>
   </bookViews>
   <sheets>
-    <sheet name="used_mappings" sheetId="1" r:id="rId1"/>
-    <sheet name="not_used_more_mappings" sheetId="3" r:id="rId2"/>
-    <sheet name="not_used_areas" sheetId="2" r:id="rId3"/>
+    <sheet name="usedMappings" sheetId="1" r:id="rId1"/>
+    <sheet name="moreMappings" sheetId="3" r:id="rId2"/>
+    <sheet name="moreAreas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="590">
-  <si>
-    <t>Booli_name</t>
-  </si>
-  <si>
-    <t>Booli_number</t>
-  </si>
-  <si>
-    <t>Maklarstatistik_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="589">
   <si>
     <t>sollentuna</t>
   </si>
@@ -98,12 +89,6 @@
     <t>vasastan/norrmalm</t>
   </si>
   <si>
-    <t>Hemnet_name</t>
-  </si>
-  <si>
-    <t>Hemnet_number</t>
-  </si>
-  <si>
     <t>kungsholmen-essingeöarna</t>
   </si>
   <si>
@@ -881,9 +866,6 @@
     <t>scraped</t>
   </si>
   <si>
-    <t>area_mapped_to_larger_region</t>
-  </si>
-  <si>
     <t>aspudden</t>
   </si>
   <si>
@@ -905,9 +887,6 @@
     <t>nacka</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>hässelby-vällingby</t>
   </si>
   <si>
@@ -1797,6 +1776,24 @@
   </si>
   <si>
     <t>kungsängen</t>
+  </si>
+  <si>
+    <t>hemnetName</t>
+  </si>
+  <si>
+    <t>hemnetNumber</t>
+  </si>
+  <si>
+    <t>booliName</t>
+  </si>
+  <si>
+    <t>booliNumber</t>
+  </si>
+  <si>
+    <t>maklarstatistikName</t>
+  </si>
+  <si>
+    <t>areaMappedToLargerRegion</t>
   </si>
 </sst>
 </file>
@@ -1856,17 +1853,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1990,26 +1977,25 @@
     <sortCondition ref="A1:A3"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="4" xr3:uid="{BA6E9F97-2E8A-4D9D-81F3-089A7127BF02}" name="Hemnet_name"/>
-    <tableColumn id="5" xr3:uid="{F68731B2-8244-4E1C-8DC0-E150B2D410F4}" name="Hemnet_number"/>
+    <tableColumn id="4" xr3:uid="{BA6E9F97-2E8A-4D9D-81F3-089A7127BF02}" name="hemnetName"/>
+    <tableColumn id="5" xr3:uid="{F68731B2-8244-4E1C-8DC0-E150B2D410F4}" name="hemnetNumber"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1800A77-6274-4EBD-A91A-8D8CA5AD2BBD}" name="Table13" displayName="Table13" ref="A1:F41" totalsRowShown="0">
-  <autoFilter ref="A1:F41" xr:uid="{49FF0015-CF5A-4409-BACE-DDB4A572741A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1800A77-6274-4EBD-A91A-8D8CA5AD2BBD}" name="Table13" displayName="Table13" ref="A1:E41" totalsRowShown="0">
+  <autoFilter ref="A1:E41" xr:uid="{49FF0015-CF5A-4409-BACE-DDB4A572741A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
     <sortCondition ref="C1:C40"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{911DAB33-D045-4FFE-BF29-FF2A60796EFA}" name="Booli_name"/>
-    <tableColumn id="2" xr3:uid="{9EF17E32-E6AC-4EA2-BE6B-7E37A9BA5D3A}" name="Booli_number"/>
-    <tableColumn id="4" xr3:uid="{CDD3F245-1EF1-4448-99A4-A8EFC95553D0}" name="Hemnet_name"/>
-    <tableColumn id="5" xr3:uid="{2D5D03FB-253A-4567-90D0-15DF573BEAC7}" name="Hemnet_number"/>
-    <tableColumn id="3" xr3:uid="{524B292E-1C62-4F44-8C05-FC9C53A1DCFA}" name="Maklarstatistik_name"/>
-    <tableColumn id="6" xr3:uid="{AA405147-ECE5-47B2-BE2C-29DCA72A7164}" name="Column1"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{911DAB33-D045-4FFE-BF29-FF2A60796EFA}" name="booliName"/>
+    <tableColumn id="2" xr3:uid="{9EF17E32-E6AC-4EA2-BE6B-7E37A9BA5D3A}" name="booliNumber"/>
+    <tableColumn id="4" xr3:uid="{CDD3F245-1EF1-4448-99A4-A8EFC95553D0}" name="hemnetName"/>
+    <tableColumn id="5" xr3:uid="{2D5D03FB-253A-4567-90D0-15DF573BEAC7}" name="hemnetNumber"/>
+    <tableColumn id="3" xr3:uid="{524B292E-1C62-4F44-8C05-FC9C53A1DCFA}" name="maklarstatistikName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2023,7 +2009,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{77B0883A-2256-4136-A5BC-CC96AB433C04}" name="scraped"/>
-    <tableColumn id="2" xr3:uid="{DF3BECA2-7713-47DE-AB27-CC94C4242B43}" name="area_mapped_to_larger_region" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DF3BECA2-7713-47DE-AB27-CC94C4242B43}" name="areaMappedToLargerRegion" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2329,7 +2315,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,15 +2329,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>925968</v>
@@ -2359,7 +2345,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>942790</v>
@@ -2367,7 +2353,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>473362</v>
@@ -2375,7 +2361,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>473498</v>
@@ -2383,7 +2369,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>473501</v>
@@ -2405,11 +2391,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D37F582-6F4E-4CA8-BCEC-157E963C8490}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2418,574 +2402,563 @@
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>586</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>583</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>584</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D2">
         <v>473440</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D3">
         <v>473339</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>115355</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>898740</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D5">
         <v>473575</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>17892</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B7">
         <v>115352</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D7">
         <v>473347</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>115346</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>473362</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>115347</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D10">
         <v>925958</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B11">
         <v>115351</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D11">
         <v>925958</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B12">
         <v>115354</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D12">
         <v>925958</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>473346</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>473501</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D15">
         <v>925972</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>931054</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D16">
         <v>925953</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>473498</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>17951</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D19">
         <v>473376</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D20">
         <v>473560</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>925951</v>
       </c>
       <c r="E21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>293</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>925951</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>393539</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>925951</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>937832</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>925951</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>925968</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>3377</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>898748</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>115353</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>898748</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>17846</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D30">
         <v>473385</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D31">
         <v>17853</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>115348</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>47344</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>115341</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>898472</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>18027</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>18028</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D36">
         <v>925952</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>393538</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D37">
         <v>925952</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>18042</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>115349</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39">
         <v>942790</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>115350</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>942790</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D41">
         <v>473575</v>
@@ -3025,7 +2998,7 @@
   <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,4474 +3009,4474 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B119" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B131" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B151" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B160" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B161" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B167" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B168" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B169" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B171" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B174" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B179" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B186" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B187" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B189" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B190" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B192" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B193" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B194" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B195" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B196" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B198" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B199" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B204" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B205" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B209" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B214" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B216" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B219" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B221" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B224" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B226" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B227" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B228" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B229" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B230" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B231" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B232" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B233" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B237" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B238" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B239" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B242" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B243" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B244" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B245" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B246" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B247" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B248" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B249" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B250" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B251" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B252" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B253" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B258" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B259" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B260" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B263" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B264" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B267" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B269" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B276" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B291" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B293" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B294" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B295" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B296" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B297" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B298" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B299" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B305" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B307" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B308" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B310" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B311" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B313" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B314" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B315" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B317" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B318" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B319" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B320" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B321" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B322" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B323" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B324" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B325" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B326" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B327" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B332" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B333" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B334" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B335" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B337" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B338" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B339" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B340" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B342" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B343" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B347" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B348" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B349" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B350" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B351" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B354" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B355" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B356" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B357" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B358" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B359" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B360" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B361" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B362" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B363" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B364" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B365" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B366" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B367" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B368" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B369" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B370" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B371" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B372" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B373" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B374" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B375" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B376" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B377" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B379" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B380" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B381" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B382" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B383" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B384" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B385" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B387" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B397" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B398" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B399" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B401" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B402" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B403" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B404" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B405" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B406" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B409" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B410" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B416" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B417" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B418" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B419" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B420" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B424" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B425" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B426" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B427" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B428" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B430" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B431" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B432" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B433" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B434" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B435" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B436" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B437" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B438" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B439" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B440" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B441" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B442" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B443" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B444" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B445" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B446" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B447" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B448" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B449" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B450" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B451" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B452" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B453" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B454" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B455" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B456" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B457" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B458" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B459" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B460" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B461" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B462" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B463" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B464" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B466" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B467" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B468" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B469" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B470" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B471" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B472" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B473" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B474" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B475" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B476" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B477" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B478" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B480" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B481" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B482" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B483" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B484" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B485" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B486" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B487" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B490" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B491" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B492" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B493" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B494" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B495" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B496" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B497" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B498" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B499" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B500" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B501" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B502" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B503" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B504" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B505" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B506" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B507" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B508" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B510" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B511" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B512" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B513" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B514" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B515" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B517" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B518" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B519" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B520" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B521" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B522" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B523" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B524" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B525" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B526" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B527" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B528" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B529" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B530" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B531" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B532" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B533" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B534" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B535" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B537" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B538" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B539" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B540" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B542" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B545" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B546" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B547" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B548" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B549" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B550" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B551" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B552" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B553" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B554" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B555" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B556" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B557" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B558" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B559" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
